--- a/Unit Test Protocol (Moving Car).xlsx
+++ b/Unit Test Protocol (Moving Car).xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>Task Status</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Motor Driver</t>
   </si>
   <si>
-    <t>Application</t>
-  </si>
-  <si>
     <t>Anas</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>Timer 2 Driver</t>
   </si>
   <si>
-    <t>Anas/Omar</t>
-  </si>
-  <si>
     <t>Test Case ID</t>
   </si>
   <si>
@@ -115,6 +109,18 @@
   </si>
   <si>
     <t>car started</t>
+  </si>
+  <si>
+    <t>Application (move_car() function)</t>
+  </si>
+  <si>
+    <t>call move_car(FORWARD_LONG_SIDE) to keep moving the car on the long side for 3 secs and then stops for 0.5 sec</t>
+  </si>
+  <si>
+    <t>Car moves forward for 3 secs then stops</t>
+  </si>
+  <si>
+    <t>Application (car_cycle() function)</t>
   </si>
 </sst>
 </file>
@@ -466,17 +472,16 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="105.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="36.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="17" width="9.140625" style="1"/>
     <col min="18" max="18" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -485,25 +490,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -514,19 +519,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="G2" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -537,19 +542,19 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="G3" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -557,14 +562,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -572,14 +577,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -590,11 +595,11 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -605,11 +610,11 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -620,11 +625,11 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -632,18 +637,38 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F10" s="3"/>
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F11" s="3"/>
@@ -668,7 +693,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E23:E1048576">
       <formula1>$R$1:$R$3</formula1>
     </dataValidation>
   </dataValidations>
@@ -681,7 +706,7 @@
           <x14:formula1>
             <xm:f>'Data Validation Range'!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G9</xm:sqref>
+          <xm:sqref>G2:G1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -709,12 +734,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">

--- a/Unit Test Protocol (Moving Car).xlsx
+++ b/Unit Test Protocol (Moving Car).xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>Task Status</t>
   </si>
@@ -121,6 +121,51 @@
   </si>
   <si>
     <t>Application (car_cycle() function)</t>
+  </si>
+  <si>
+    <t>Call TIMER0_delay(3000) to delay the code for 3 seconds</t>
+  </si>
+  <si>
+    <t>delay 3 seconds</t>
+  </si>
+  <si>
+    <t>code is delayed for 3 seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call MOTOR_control(enable pin,port number,duty cycle) </t>
+  </si>
+  <si>
+    <t>car should move at 50% speed</t>
+  </si>
+  <si>
+    <t>car moves at 50% speed</t>
+  </si>
+  <si>
+    <t>call car_cycle() the main application</t>
+  </si>
+  <si>
+    <t>car keeps looping over the states</t>
+  </si>
+  <si>
+    <t>car kept looping over the states</t>
+  </si>
+  <si>
+    <t>call BUTTON_read(pin number, port number) to turn on led</t>
+  </si>
+  <si>
+    <t>led should turn on</t>
+  </si>
+  <si>
+    <t>led turned on</t>
+  </si>
+  <si>
+    <t>call LED_toggle(pin number, port number)</t>
+  </si>
+  <si>
+    <t>led should toggle</t>
+  </si>
+  <si>
+    <t>led keep toggling</t>
   </si>
 </sst>
 </file>
@@ -472,7 +517,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,7 +612,15 @@
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="G4" s="6" t="s">
         <v>20</v>
       </c>
@@ -582,7 +635,15 @@
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="G5" s="6" t="s">
         <v>20</v>
       </c>
@@ -597,7 +658,15 @@
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="D6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="G6" s="6" t="s">
         <v>20</v>
       </c>
@@ -612,7 +681,15 @@
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="D7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="G7" s="6" t="s">
         <v>20</v>
       </c>
@@ -627,7 +704,15 @@
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="G8" s="6" t="s">
         <v>20</v>
       </c>
@@ -642,7 +727,15 @@
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="D9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="G9" s="6" t="s">
         <v>20</v>
       </c>
